--- a/Estudio 4/Resultados.xlsx
+++ b/Estudio 4/Resultados.xlsx
@@ -3750,7 +3750,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3774,8 +3774,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3783,12 +3788,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3812,14 +3833,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Énfasis2" xfId="4" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -4234,8 +4256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
